--- a/data/save_data/2021/bukauskas_j. b..xlsx
+++ b/data/save_data/2021/bukauskas_j. b..xlsx
@@ -502,7 +502,7 @@
         <v>-6</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>-6</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>-4</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>-2</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>-4</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>-6</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>-7</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>-13</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>-4</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>-2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>-2</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>-1</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>-3</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>-2</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>-1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>-3</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>-6</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>-7</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>-2</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>

--- a/data/save_data/2021/bukauskas_j. b..xlsx
+++ b/data/save_data/2021/bukauskas_j. b..xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -499,7 +499,7 @@
         <v>-6</v>
       </c>
       <c r="F2" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -530,10 +530,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F3" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>-4</v>
       </c>
       <c r="F4" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>-2</v>
       </c>
       <c r="F5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -635,7 +635,7 @@
         <v>-4</v>
       </c>
       <c r="F6" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -700,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -768,10 +768,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F11" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -836,10 +836,10 @@
         <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="F12" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>-4</v>
       </c>
       <c r="F13" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -904,10 +904,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F14" t="n">
         <v>-1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-2</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F15" t="n">
         <v>-2</v>
@@ -975,7 +975,7 @@
         <v>-1</v>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>21</v>
       </c>
       <c r="E17" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F17" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1040,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18" t="n">
         <v>-1</v>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>-2</v>
       </c>
       <c r="F20" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>-1</v>
       </c>
       <c r="F22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F24" t="n">
         <v>-3</v>
@@ -1281,7 +1281,7 @@
         <v>-6</v>
       </c>
       <c r="F25" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1383,7 +1383,7 @@
         <v>-7</v>
       </c>
       <c r="F28" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1451,7 +1451,7 @@
         <v>-2</v>
       </c>
       <c r="F30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
